--- a/Data/Table/Score.xlsx
+++ b/Data/Table/Score.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Test2\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6949742-291F-4AC1-9CB1-6C771E841FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67840BD0-B5A9-4030-902F-5413254024E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29310" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -27,32 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>score0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score2</t>
-  </si>
-  <si>
-    <t>score3</t>
-  </si>
-  <si>
-    <t>score4</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>math</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>english</t>
+    <t>Score0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,17 +384,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -404,7 +407,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>99</v>
@@ -415,7 +418,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -426,7 +429,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -437,7 +440,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -448,7 +451,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>4</v>
